--- a/Circle data.xlsx
+++ b/Circle data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">MODEL_TYPE</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">AA67507630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA03329700</t>
   </si>
   <si>
     <t xml:space="preserve">AA03452253</t>
@@ -674,31 +677,31 @@
         <v>24</v>
       </c>
       <c r="B4" t="n">
-        <v>220516056</v>
+        <v>220401462</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43291.6770833333</v>
+        <v>43288.4354166667</v>
       </c>
       <c r="D4" t="n">
-        <v>266103</v>
+        <v>176063</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>43291.7206481481</v>
+        <v>43288.5244675926</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>43291.7291782407</v>
+        <v>43288.53375</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>41.5219444444444</v>
+        <v>41.5386111111111</v>
       </c>
       <c r="J4" t="n">
-        <v>14.0313888888889</v>
+        <v>14.1188888888889</v>
       </c>
       <c r="K4" t="n">
         <v>40.8844444444444</v>
@@ -707,28 +710,28 @@
         <v>14.2908333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>617</v>
+        <v>1020</v>
       </c>
       <c r="P4" t="n">
-        <v>705</v>
+        <v>1134</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
       <c r="R4" t="n">
-        <v>67993623549</v>
+        <v>67904097632</v>
       </c>
       <c r="S4" t="n">
-        <v>8834093</v>
+        <v>8828872</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>43291</v>
+        <v>43288</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -737,9 +740,83 @@
         <v>31</v>
       </c>
       <c r="W4" s="1" t="n">
+        <v>43288.4656944445</v>
+      </c>
+      <c r="X4" t="n">
+        <v>348.792048542216</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n">
+        <v>220516056</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>43291.6770833333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>266103</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>43291.7206481481</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>43291.7291782407</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41.5219444444444</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.0313888888889</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40.8844444444444</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.2908333333333</v>
+      </c>
+      <c r="M5" t="n">
+        <v>159</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>617</v>
+      </c>
+      <c r="P5" t="n">
+        <v>705</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="n">
+        <v>67993623549</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8834093</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>43291</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="1" t="n">
         <v>43291.677349537</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X5" t="n">
         <v>342.939175174717</v>
       </c>
     </row>
